--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori4/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori4/42/incorrect_predictions_42.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16-29</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori4/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori4/42/incorrect_predictions_42.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5-14</t>
+          <t>16-29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
